--- a/sendmail/teste2.xlsx
+++ b/sendmail/teste2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atend\OneDrive\Documentos\GitHub\Enviar Email\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atend\OneDrive\Documentos\GitHub\python_avancado\sendmail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB267AF-2A75-4AB5-8F01-AC43E716A394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBBDF2E-47BA-48C4-B51C-120FC4E8AC20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{3455384A-673C-4733-9449-7B19B9A9EE0B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>isaacellon5@gmail.com</t>
   </si>
@@ -66,6 +66,15 @@
   </si>
   <si>
     <t>Justino</t>
+  </si>
+  <si>
+    <t>isaacellon2018@icloud.com</t>
+  </si>
+  <si>
+    <t>arianevssilveira@gmail.com</t>
+  </si>
+  <si>
+    <t>Ariane</t>
   </si>
 </sst>
 </file>
@@ -449,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10468911-182A-4F1C-8473-DB64C3B3497D}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,17 +501,18 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="str">
+        <f>F3</f>
+        <v>isaacellon2018@gmail.com</v>
       </c>
       <c r="C3">
         <v>555555</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
+      <c r="F3" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -510,24 +520,61 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>555555</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>666666</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>666666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>35000</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>72728228282</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{C4EE1102-0F3E-43EC-AFB2-21286E19D434}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{13BBF595-6C83-4306-AF39-C36926065E57}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{AC44DD5E-9206-4750-A74E-BC04549851FD}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{13BBF595-6C83-4306-AF39-C36926065E57}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{AC44DD5E-9206-4750-A74E-BC04549851FD}"/>
+    <hyperlink ref="F3" r:id="rId4" xr:uid="{FBD55DDC-3207-4A2B-835F-59277A62E3E2}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{05AAF3AE-075D-4583-9021-03106E305F3D}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/sendmail/teste2.xlsx
+++ b/sendmail/teste2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atend\OneDrive\Documentos\GitHub\python_avancado\sendmail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBBDF2E-47BA-48C4-B51C-120FC4E8AC20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44064ADA-891C-48FA-8CE9-0B2A9E6754E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{3455384A-673C-4733-9449-7B19B9A9EE0B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>isaacellon5@gmail.com</t>
   </si>
@@ -69,12 +69,6 @@
   </si>
   <si>
     <t>isaacellon2018@icloud.com</t>
-  </si>
-  <si>
-    <t>arianevssilveira@gmail.com</t>
-  </si>
-  <si>
-    <t>Ariane</t>
   </si>
 </sst>
 </file>
@@ -458,20 +452,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10468911-182A-4F1C-8473-DB64C3B3497D}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="26.28515625" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
@@ -486,7 +481,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>1099</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -501,8 +496,8 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0</v>
+      <c r="A3" s="2">
+        <v>54667</v>
       </c>
       <c r="B3" t="str">
         <f>F3</f>
@@ -530,9 +525,6 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -552,20 +544,6 @@
       </c>
       <c r="C6">
         <v>666666</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>35000</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>72728228282</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/sendmail/teste2.xlsx
+++ b/sendmail/teste2.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atend\OneDrive\Documentos\GitHub\python_avancado\sendmail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44064ADA-891C-48FA-8CE9-0B2A9E6754E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE7BE12-C43C-4731-948B-229BBAD2D83A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{3455384A-673C-4733-9449-7B19B9A9EE0B}"/>
+    <workbookView xWindow="-23595" yWindow="-1860" windowWidth="15375" windowHeight="7785" xr2:uid="{3455384A-673C-4733-9449-7B19B9A9EE0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>isaacellon5@gmail.com</t>
   </si>
@@ -47,18 +47,6 @@
     <t>isaacellon2018@gmail.com</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>pedido</t>
-  </si>
-  <si>
-    <t>rastreamento</t>
-  </si>
-  <si>
-    <t>nome</t>
-  </si>
-  <si>
     <t>Isaac</t>
   </si>
   <si>
@@ -69,13 +57,43 @@
   </si>
   <si>
     <t>isaacellon2018@icloud.com</t>
+  </si>
+  <si>
+    <t>Nº PEDIDO</t>
+  </si>
+  <si>
+    <t>NOME</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>RASTREAMENTO</t>
+  </si>
+  <si>
+    <t>ASSUNTO</t>
+  </si>
+  <si>
+    <t>TEXTO</t>
+  </si>
+  <si>
+    <t>LINK</t>
+  </si>
+  <si>
+    <t>fadaf</t>
+  </si>
+  <si>
+    <t>Ariane</t>
+  </si>
+  <si>
+    <t>arianevssilveira@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,16 +109,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF666666"/>
+      <name val="微软雅黑"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Var(--nimbus-fontFamily-sans)"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -108,15 +150,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -455,104 +517,123 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5">
+      <c r="A2" s="2">
+        <v>33333</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1099</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>444444</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
+      <c r="D2" s="4">
+        <v>888030203444577</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="16.5">
       <c r="A3" s="2">
         <v>54667</v>
       </c>
-      <c r="B3" t="str">
-        <f>F3</f>
-        <v>isaacellon2018@gmail.com</v>
-      </c>
-      <c r="C3">
-        <v>555555</v>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4">
+        <v>888030203444577</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="16.5">
       <c r="A4" s="2">
+        <v>54353</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>888030203444577</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5">
+      <c r="A5" s="2">
+        <v>34635</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>555555</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
+      <c r="D5" s="4">
+        <v>888030203444577</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>666666</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="16.5">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>34663</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>666666</v>
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4">
+        <v>888030203444577</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{C4EE1102-0F3E-43EC-AFB2-21286E19D434}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{13BBF595-6C83-4306-AF39-C36926065E57}"/>
-    <hyperlink ref="B5" r:id="rId3" xr:uid="{AC44DD5E-9206-4750-A74E-BC04549851FD}"/>
-    <hyperlink ref="F3" r:id="rId4" xr:uid="{FBD55DDC-3207-4A2B-835F-59277A62E3E2}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{05AAF3AE-075D-4583-9021-03106E305F3D}"/>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{FBD55DDC-3207-4A2B-835F-59277A62E3E2}"/>
+    <hyperlink ref="B6" r:id="rId2" display="isaacellon2018@icloud.com" xr:uid="{05AAF3AE-075D-4583-9021-03106E305F3D}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{2704594E-632F-4893-9BAB-C19D4479D4B5}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{0D1062FF-CC83-4A6A-9F5B-933B50A8F76B}"/>
+    <hyperlink ref="C5" r:id="rId5" xr:uid="{7705B477-6B39-43CC-A039-4ECC0414B2D7}"/>
+    <hyperlink ref="C6" r:id="rId6" xr:uid="{B8D5965C-FB92-4300-AB9D-5B32BDB01EB3}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
